--- a/Assets/DataTables/ItemDB.xlsx
+++ b/Assets/DataTables/ItemDB.xlsx
@@ -19,13 +19,13 @@
     <t>Type</t>
   </si>
   <si>
-    <t>DefaultName</t>
-  </si>
-  <si>
-    <t>DefaultPrice</t>
-  </si>
-  <si>
-    <t>DefaultExplain</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Explain</t>
   </si>
   <si>
     <t>Weapon</t>
